--- a/biology/Médecine/Oligoarthrite/Oligoarthrite.xlsx
+++ b/biology/Médecine/Oligoarthrite/Oligoarthrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L' oligoarthrite est définie par les rhumatologues comme une inflammation (arthrite) affectant 2 à 3 articulations durant au moins les 6 premiers mois d'une maladie [1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L' oligoarthrite est définie par les rhumatologues comme une inflammation (arthrite) affectant 2 à 3 articulations durant au moins les 6 premiers mois d'une maladie 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Maladies associées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oligoarthrite peut être associée à différentes maladies, dont :
-psoriasis et « rhumatisme psoriasique » ; 60 % des patients sont touchés par une oligoarthrite en début de maladie, mais elle évolue généralement ensuite en polyarthrite[2]. Le psoriasis est un facteur aggravant le risque de développer une oligoarthrite.
-maladie de Lyme ; borréliose causée par des spirochètes (Borrelia)transmis par les tiques. La maladie passe souvent inaperçue[3] mais l'oligoarthrite est un des premiers symptômes possibles[3]. Ainsi, une étude (1993) a recherché des anticorps dirigés contre Borrelia burgdorferi chez 210 patients atteints d'arthrites, dont 82 étaient inexpliquées (oligoarthrites d'étiologies "inconnues") ; 13,4 % de ces patients ont été testés positifs à la maladie de Lyme, contre 1,6 % dans le groupe témoin ; Seuls quatre de ces patients se souvenaient d'une morsure de tique, et seuls deux avaient développé un érythème migrant[3]. Les genoux étaient les plus fréquemment touchés (90 % des cas) et des anomalies radiographiques (ostéoporose, gonflement des tissus mous) ont été notées chez 3 patients. Les analyses de liquide synovial étaient typiques d'arthrites inflammatoires chez six patients[3].
-Maladie d'Erdheim-Chester[4]
-Spondylarthrite ankylosante[5]
+psoriasis et « rhumatisme psoriasique » ; 60 % des patients sont touchés par une oligoarthrite en début de maladie, mais elle évolue généralement ensuite en polyarthrite. Le psoriasis est un facteur aggravant le risque de développer une oligoarthrite.
+maladie de Lyme ; borréliose causée par des spirochètes (Borrelia)transmis par les tiques. La maladie passe souvent inaperçue mais l'oligoarthrite est un des premiers symptômes possibles. Ainsi, une étude (1993) a recherché des anticorps dirigés contre Borrelia burgdorferi chez 210 patients atteints d'arthrites, dont 82 étaient inexpliquées (oligoarthrites d'étiologies "inconnues") ; 13,4 % de ces patients ont été testés positifs à la maladie de Lyme, contre 1,6 % dans le groupe témoin ; Seuls quatre de ces patients se souvenaient d'une morsure de tique, et seuls deux avaient développé un érythème migrant. Les genoux étaient les plus fréquemment touchés (90 % des cas) et des anomalies radiographiques (ostéoporose, gonflement des tissus mous) ont été notées chez 3 patients. Les analyses de liquide synovial étaient typiques d'arthrites inflammatoires chez six patients.
+Maladie d'Erdheim-Chester
+Spondylarthrite ankylosante
 SAPHO
 ...
 pathologies d'étiologie inconnue...
@@ -551,9 +565,11 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux sous-catégories en sont reconnues[1],[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux sous-catégories en sont reconnues, :
 oligoarthrite persistante : ne touchant pas plus de quatre articulations, tout au long de l'évolution de la maladie
 oligoarthrite étendue : affectant un total de plus de quatre articulations après les six premiers mois de la maladie
 On peut en outre les classer en oligoarthrite « asymétrique » ou « symétrique »selon les articulations concernées
